--- a/data/input/absenteeism_data_45.xlsx
+++ b/data/input/absenteeism_data_45.xlsx
@@ -476,190 +476,190 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>35230</v>
+        <v>69587</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sr. Luiz Felipe Costa</t>
+          <t>Pietro Aragão</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45100</v>
+        <v>45095</v>
       </c>
       <c r="G2" t="n">
-        <v>7398.37</v>
+        <v>4153.29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>22247</v>
+        <v>89328</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Leandro Cardoso</t>
+          <t>Dra. Larissa Moraes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45102</v>
+        <v>45105</v>
       </c>
       <c r="G3" t="n">
-        <v>3813.11</v>
+        <v>6667.69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>96323</v>
+        <v>42617</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dra. Ana Clara Silva</t>
+          <t>Sra. Maria Luiza Pinto</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45087</v>
+        <v>45097</v>
       </c>
       <c r="G4" t="n">
-        <v>9935.73</v>
+        <v>5070.68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>96257</v>
+        <v>73380</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fernando Ferreira</t>
+          <t>Anthony das Neves</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45080</v>
+        <v>45106</v>
       </c>
       <c r="G5" t="n">
-        <v>10266.79</v>
+        <v>2843.46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>23979</v>
+        <v>63813</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ana Julia Jesus</t>
+          <t>Thales Cunha</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45088</v>
+        <v>45082</v>
       </c>
       <c r="G6" t="n">
-        <v>7481.69</v>
+        <v>10469.38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>17387</v>
+        <v>78230</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dra. Juliana Jesus</t>
+          <t>Elisa da Cruz</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45101</v>
+        <v>45079</v>
       </c>
       <c r="G7" t="n">
-        <v>3838.1</v>
+        <v>6994.97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>94292</v>
+        <v>29326</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bárbara da Mota</t>
+          <t>Ana Laura da Rocha</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,27 +668,27 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45095</v>
+        <v>45098</v>
       </c>
       <c r="G8" t="n">
-        <v>10788.66</v>
+        <v>9923.51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>88446</v>
+        <v>49065</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Esther Cavalcanti</t>
+          <t>Ana Carolina Melo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,71 +697,71 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45094</v>
+        <v>45098</v>
       </c>
       <c r="G9" t="n">
-        <v>4500.06</v>
+        <v>8246.49</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>51751</v>
+        <v>44194</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ana Julia Gomes</t>
+          <t>Bárbara Monteiro</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45098</v>
+        <v>45089</v>
       </c>
       <c r="G10" t="n">
-        <v>7846.33</v>
+        <v>4242.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>74748</v>
+        <v>22825</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Juan Monteiro</t>
+          <t>Sra. Sabrina Silveira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45105</v>
+        <v>45080</v>
       </c>
       <c r="G11" t="n">
-        <v>4542.24</v>
+        <v>5943.81</v>
       </c>
     </row>
   </sheetData>
